--- a/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
+++ b/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
@@ -1165,7 +1165,7 @@
     <t>Categorical data indicating that an adverse event is associated in time to an immunization.</t>
   </si>
   <si>
-    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case,  it should be recorded as a new [AllergyIntolerance](https://build.fhir.org/ig/hl7au/au-fhir-base/allergyintolerance.html) resource instance as most systems will not query against  past Immunization.reaction elements.</t>
+    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case,  it should be recorded as a new [AllergyIntolerance](allergyintolerance.html) resource instance as most systems will not query against  past Immunization.reaction elements.</t>
   </si>
   <si>
     <t>OBX-3</t>

--- a/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
+++ b/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
@@ -1165,7 +1165,7 @@
     <t>Categorical data indicating that an adverse event is associated in time to an immunization.</t>
   </si>
   <si>
-    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case,  it should be recorded as a new [AllergyIntolerance](allergyintolerance.html) resource instance as most systems will not query against  past Immunization.reaction elements.</t>
+    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case,  it should be recorded as a new [AllergyIntolerance](https://build.fhir.org/ig/hl7au/au-fhir-base/allergyintolerance.html) resource instance as most systems will not query against  past Immunization.reaction elements.</t>
   </si>
   <si>
     <t>OBX-3</t>

--- a/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
+++ b/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
@@ -1165,7 +1165,7 @@
     <t>Categorical data indicating that an adverse event is associated in time to an immunization.</t>
   </si>
   <si>
-    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case,  it should be recorded as a new [AllergyIntolerance](http://hl7.org/fhir/STU3/allergyintolerance.html) resource instance as most systems will not query against  past Immunization.reaction elements.</t>
+    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case,  it should be recorded as a new [AllergyIntolerance](https://build.fhir.org/ig/hl7au/au-fhir-base/allergyintolerance.html) resource instance as most systems will not query against  past Immunization.reaction elements.</t>
   </si>
   <si>
     <t>OBX-3</t>

--- a/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
+++ b/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
@@ -13645,7 +13645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>430</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>51</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>41</v>

--- a/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
+++ b/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
@@ -1165,7 +1165,7 @@
     <t>Categorical data indicating that an adverse event is associated in time to an immunization.</t>
   </si>
   <si>
-    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case,  it should be recorded as a new [AllergyIntolerance](https://build.fhir.org/ig/hl7au/au-fhir-base/allergyintolerance.html) resource instance as most systems will not query against  past Immunization.reaction elements.</t>
+    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case,  it should be recorded as a new [AllergyIntolerance](http://hl7.org/fhir/STU3/allergyintolerance.html) resource instance as most systems will not query against  past Immunization.reaction elements.</t>
   </si>
   <si>
     <t>OBX-3</t>

--- a/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
+++ b/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4040" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4040" uniqueCount="450">
   <si>
     <t>Path</t>
   </si>
@@ -728,7 +728,7 @@
     <t>Immunization.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/au-organisation]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -1282,10 +1282,6 @@
   </si>
   <si>
     <t>Immunization.vaccinationProtocol.authority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
-</t>
   </si>
   <si>
     <t>Who is responsible for protocol</t>
@@ -3619,7 +3615,7 @@
         <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
@@ -12650,13 +12646,13 @@
         <v>41</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K98" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K98" t="s" s="2">
+      <c r="L98" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12725,7 +12721,7 @@
         <v>41</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>41</v>
@@ -12739,7 +12735,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12765,10 +12761,10 @@
         <v>145</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12819,7 +12815,7 @@
         <v>41</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -12851,7 +12847,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12877,10 +12873,10 @@
         <v>398</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12931,7 +12927,7 @@
         <v>41</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -12963,7 +12959,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12989,10 +12985,10 @@
         <v>133</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13022,11 +13018,11 @@
         <v>136</v>
       </c>
       <c r="X101" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Y101" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Y101" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="Z101" t="s" s="2">
         <v>41</v>
       </c>
@@ -13043,7 +13039,7 @@
         <v>41</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>51</v>
@@ -13061,7 +13057,7 @@
         <v>41</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>41</v>
@@ -13075,7 +13071,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13187,7 +13183,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13301,7 +13297,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13415,10 +13411,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B105" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>41</v>
@@ -13443,7 +13439,7 @@
         <v>157</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L105" t="s" s="2">
         <v>159</v>
@@ -13481,7 +13477,7 @@
       </c>
       <c r="X105" s="2"/>
       <c r="Y105" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>41</v>
@@ -13531,7 +13527,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13647,7 +13643,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13673,13 +13669,13 @@
         <v>133</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -13708,46 +13704,46 @@
         <v>136</v>
       </c>
       <c r="X107" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Y107" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="Y107" t="s" s="2">
+      <c r="Z107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK107" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>41</v>
@@ -13761,7 +13757,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13873,7 +13869,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13987,7 +13983,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14059,7 +14055,7 @@
         <v>41</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AB110" s="2"/>
       <c r="AC110" t="s" s="2">
@@ -14101,10 +14097,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>41</v>
@@ -14129,7 +14125,7 @@
         <v>157</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L111" t="s" s="2">
         <v>159</v>
@@ -14145,7 +14141,7 @@
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R111" t="s" s="2">
         <v>41</v>
@@ -14219,7 +14215,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14335,7 +14331,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14361,10 +14357,10 @@
         <v>133</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14394,46 +14390,46 @@
         <v>136</v>
       </c>
       <c r="X113" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Y113" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Y113" t="s" s="2">
+      <c r="Z113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK113" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>41</v>

--- a/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
+++ b/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$114</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4040" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="453">
   <si>
     <t>Path</t>
   </si>
@@ -436,7 +436,7 @@
 </t>
   </si>
   <si>
-    <t>Vaccine product administered</t>
+    <t>Vaccine product for administration</t>
   </si>
   <si>
     <t>Vaccine that was administered or was to be administered.</t>
@@ -585,7 +585,7 @@
 </t>
   </si>
   <si>
-    <t>Who was immunized</t>
+    <t>Patient immunised</t>
   </si>
   <si>
     <t>The patient who either received or did not receive the immunization.</t>
@@ -787,7 +787,7 @@
     <t>Immunization.site</t>
   </si>
   <si>
-    <t>Body site vaccine  was administered</t>
+    <t>Body site vaccine was administered</t>
   </si>
   <si>
     <t>Body site where vaccine was administered.</t>
@@ -826,7 +826,7 @@
     <t>Immunization.route</t>
   </si>
   <si>
-    <t>How vaccine entered body</t>
+    <t>Route of vaccination</t>
   </si>
   <si>
     <t>The path by which the vaccine product is taken into the body.</t>
@@ -1057,7 +1057,7 @@
     <t>Immunization.explanation</t>
   </si>
   <si>
-    <t>Administration/non-administration reasons</t>
+    <t>Explanation for (non)vaccination</t>
   </si>
   <si>
     <t>Reasons why a vaccine was or was not administered.</t>
@@ -1075,7 +1075,7 @@
     <t>Immunization.explanation.reason</t>
   </si>
   <si>
-    <t>Why immunization occurred</t>
+    <t>Reason vaccine administered</t>
   </si>
   <si>
     <t>Reasons why a vaccine was administered.</t>
@@ -1232,7 +1232,7 @@
     <t>Immunization.vaccinationProtocol</t>
   </si>
   <si>
-    <t>What protocol was followed</t>
+    <t>Vaccination protocol</t>
   </si>
   <si>
     <t>Contains information about the protocol(s) under which the vaccine was administered.</t>
@@ -1314,7 +1314,7 @@
     <t>Immunization.vaccinationProtocol.targetDisease</t>
   </si>
   <si>
-    <t>Disease immunized against</t>
+    <t>Vaccine disease target</t>
   </si>
   <si>
     <t>The targeted disease.</t>
@@ -1347,13 +1347,26 @@
     <t>https://healthterminologies.gov.au/fhir/ValueSet/vaccination-target-disease-1</t>
   </si>
   <si>
+    <t>targetDiseaseNoInformation</t>
+  </si>
+  <si>
+    <t>No Information for Target Disease</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://hl7.org/fhir/v3/NullFlavor"/&gt;
+  &lt;code value="NI"/&gt;
+  &lt;display value="No Information"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
     <t>Immunization.vaccinationProtocol.targetDisease.text</t>
   </si>
   <si>
     <t>Immunization.vaccinationProtocol.doseStatus</t>
   </si>
   <si>
-    <t>Indicates if dose counts towards immunity</t>
+    <t>Vaccine relation to protocol</t>
   </si>
   <si>
     <t>Indicates if the immunization event should "count" against  the protocol.</t>
@@ -1564,7 +1577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO113"/>
+  <dimension ref="A1:AO114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1574,7 +1587,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="53.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.5390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -13527,9 +13540,11 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B106" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
         <v>41</v>
       </c>
@@ -13550,26 +13565,26 @@
         <v>52</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>173</v>
+        <v>429</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>41</v>
@@ -13611,13 +13626,13 @@
         <v>41</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>41</v>
@@ -13626,10 +13641,10 @@
         <v>41</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>41</v>
@@ -13641,9 +13656,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13651,33 +13666,35 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I107" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J107" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>430</v>
+        <v>173</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>431</v>
+        <v>174</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>41</v>
       </c>
@@ -13701,13 +13718,13 @@
         <v>41</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>433</v>
+        <v>41</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>434</v>
+        <v>41</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>41</v>
@@ -13725,10 +13742,10 @@
         <v>41</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>429</v>
+        <v>177</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>51</v>
@@ -13740,10 +13757,10 @@
         <v>41</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>435</v>
+        <v>179</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>41</v>
@@ -13755,9 +13772,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13765,13 +13782,13 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>41</v>
@@ -13780,15 +13797,17 @@
         <v>41</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>146</v>
+        <v>433</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M108" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>41</v>
@@ -13813,13 +13832,13 @@
         <v>41</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>41</v>
+        <v>436</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>41</v>
+        <v>437</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>41</v>
@@ -13837,10 +13856,10 @@
         <v>41</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>148</v>
+        <v>432</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>51</v>
@@ -13855,7 +13874,7 @@
         <v>41</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>149</v>
+        <v>438</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>41</v>
@@ -13869,18 +13888,18 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>41</v>
@@ -13892,17 +13911,15 @@
         <v>41</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>41</v>
@@ -13939,25 +13956,25 @@
         <v>41</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="AC109" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>41</v>
@@ -13983,11 +14000,11 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14003,23 +14020,21 @@
         <v>41</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>41</v>
       </c>
@@ -14055,9 +14070,11 @@
         <v>41</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AB110" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="AC110" t="s" s="2">
         <v>41</v>
       </c>
@@ -14065,7 +14082,7 @@
         <v>154</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -14080,10 +14097,10 @@
         <v>41</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>41</v>
@@ -14097,11 +14114,9 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
         <v>41</v>
       </c>
@@ -14110,7 +14125,7 @@
         <v>42</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>41</v>
@@ -14125,7 +14140,7 @@
         <v>157</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>441</v>
+        <v>158</v>
       </c>
       <c r="L111" t="s" s="2">
         <v>159</v>
@@ -14141,46 +14156,44 @@
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA111" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="R111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AB111" s="2"/>
       <c r="AC111" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="AE111" t="s" s="2">
         <v>163</v>
@@ -14215,9 +14228,11 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B112" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>41</v>
       </c>
@@ -14238,26 +14253,26 @@
         <v>52</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>173</v>
+        <v>444</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>41</v>
+        <v>445</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>41</v>
@@ -14299,13 +14314,13 @@
         <v>41</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>41</v>
@@ -14314,10 +14329,10 @@
         <v>41</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>41</v>
@@ -14331,7 +14346,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14351,19 +14366,23 @@
         <v>41</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>445</v>
+        <v>173</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O113" t="s" s="2">
         <v>41</v>
       </c>
@@ -14387,62 +14406,174 @@
         <v>41</v>
       </c>
       <c r="W113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W114" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="X113" t="s" s="2">
+      <c r="X114" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE114" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Y113" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN113" t="s" s="2">
+      <c r="AF114" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN114" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN113">
+  <autoFilter ref="A1:AN114">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14452,7 +14583,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI112">
+  <conditionalFormatting sqref="A2:AI113">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
+++ b/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
@@ -1356,7 +1356,7 @@
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://hl7.org/fhir/v3/NullFlavor"/&gt;
   &lt;code value="NI"/&gt;
-  &lt;display value="No Information"/&gt;
+  &lt;display value="NoInformation"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
   <si>

--- a/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
+++ b/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
@@ -177,7 +177,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -196,7 +196,7 @@
     <t>Immunization.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -212,7 +212,7 @@
     <t>Immunization.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -232,7 +232,7 @@
     <t>Immunization.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -264,7 +264,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -294,7 +294,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -320,7 +320,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -351,7 +351,7 @@
     <t>Immunization.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -407,7 +407,7 @@
     <t>Immunization.notGiven</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -420,7 +420,7 @@
     <t>This element is labeled as a modifier because it indicates that an immunization didn't happen.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="false"/&gt;</t>
+    <t>false</t>
   </si>
   <si>
     <t>[actionNegationInd=true].reasonCode</t>
@@ -432,7 +432,7 @@
     <t>Immunization.vaccineCode</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -469,7 +469,7 @@
     <t>Immunization.vaccineCode.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -507,7 +507,7 @@
     <t>Immunization.vaccineCode.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -581,7 +581,7 @@
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -606,7 +606,7 @@
     <t>Immunization.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -631,7 +631,7 @@
     <t>Immunization.date</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <t>Immunization.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -728,7 +728,7 @@
     <t>Immunization.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -768,7 +768,7 @@
     <t>Immunization.expirationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -871,7 +871,7 @@
     <t>Immunization.doseQuantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -890,7 +890,7 @@
     <t>Immunization.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
     <t>Immunization.practitioner.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner]]}
+    <t xml:space="preserve">Reference(Practitioner)
 </t>
   </si>
   <si>
@@ -1007,7 +1007,7 @@
     <t>Immunization.practitioner.role.text</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Administering Provider"/&gt;</t>
+    <t>Administering Provider</t>
   </si>
   <si>
     <t>Administering practitioner</t>
@@ -1029,7 +1029,7 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Ordering Provider"/&gt;</t>
+    <t>Ordering Provider</t>
   </si>
   <si>
     <t>Approving practitioner</t>
@@ -1038,7 +1038,7 @@
     <t>Immunization.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1198,7 +1198,7 @@
     <t>Immunization.reaction.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
+    <t xml:space="preserve">Reference(Observation)
 </t>
   </si>
   <si>
@@ -1256,7 +1256,7 @@
     <t>Immunization.vaccinationProtocol.doseSequence</t>
   </si>
   <si>
-    <t xml:space="preserve">positiveInt {[]} {[]}
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
@@ -1481,67 +1481,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1577,7 +1577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO114"/>
+  <dimension ref="A1:AN114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
+++ b/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
@@ -177,7 +177,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -196,7 +196,7 @@
     <t>Immunization.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -212,7 +212,7 @@
     <t>Immunization.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -232,7 +232,7 @@
     <t>Immunization.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -264,7 +264,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -294,7 +294,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -320,7 +320,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -351,7 +351,7 @@
     <t>Immunization.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -407,7 +407,7 @@
     <t>Immunization.notGiven</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
@@ -420,7 +420,7 @@
     <t>This element is labeled as a modifier because it indicates that an immunization didn't happen.</t>
   </si>
   <si>
-    <t>false</t>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="false"/&gt;</t>
   </si>
   <si>
     <t>[actionNegationInd=true].reasonCode</t>
@@ -432,7 +432,7 @@
     <t>Immunization.vaccineCode</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -469,7 +469,7 @@
     <t>Immunization.vaccineCode.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -507,7 +507,7 @@
     <t>Immunization.vaccineCode.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -581,7 +581,7 @@
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
 </t>
   </si>
   <si>
@@ -606,7 +606,7 @@
     <t>Immunization.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
 </t>
   </si>
   <si>
@@ -631,7 +631,7 @@
     <t>Immunization.date</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <t>Immunization.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
 </t>
   </si>
   <si>
@@ -728,7 +728,7 @@
     <t>Immunization.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -768,7 +768,7 @@
     <t>Immunization.expirationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date
+    <t xml:space="preserve">date {[]} {[]}
 </t>
   </si>
   <si>
@@ -871,7 +871,7 @@
     <t>Immunization.doseQuantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
 </t>
   </si>
   <si>
@@ -890,7 +890,7 @@
     <t>Immunization.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
     <t>Immunization.practitioner.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner]]}
 </t>
   </si>
   <si>
@@ -1007,7 +1007,7 @@
     <t>Immunization.practitioner.role.text</t>
   </si>
   <si>
-    <t>Administering Provider</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Administering Provider"/&gt;</t>
   </si>
   <si>
     <t>Administering practitioner</t>
@@ -1029,7 +1029,7 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>Ordering Provider</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Ordering Provider"/&gt;</t>
   </si>
   <si>
     <t>Approving practitioner</t>
@@ -1038,7 +1038,7 @@
     <t>Immunization.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation
+    <t xml:space="preserve">Annotation {[]} {[]}
 </t>
   </si>
   <si>
@@ -1198,7 +1198,7 @@
     <t>Immunization.reaction.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
 </t>
   </si>
   <si>
@@ -1256,7 +1256,7 @@
     <t>Immunization.vaccinationProtocol.doseSequence</t>
   </si>
   <si>
-    <t xml:space="preserve">positiveInt
+    <t xml:space="preserve">positiveInt {[]} {[]}
 </t>
   </si>
   <si>
@@ -1481,67 +1481,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -1577,7 +1577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN114"/>
+  <dimension ref="A1:AO114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
+++ b/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$128</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4577" uniqueCount="486">
   <si>
     <t>Path</t>
   </si>
@@ -542,9 +542,132 @@
     <t>AMT Vaccine</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/amt-vaccine-1</t>
   </si>
   <si>
+    <t>Immunization.vaccineCode.coding.id</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.extension</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
     <t>airVaccineCode</t>
   </si>
   <si>
@@ -552,6 +675,9 @@
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/australian-immunisation-register-vaccine-1</t>
+  </si>
+  <si>
+    <t>https://www.humanservices.gov.au/organisations/health-professionals/enablers/air-vaccine-code-formats</t>
   </si>
   <si>
     <t>Immunization.vaccineCode.text</t>
@@ -662,7 +788,7 @@
     <t>Immunization.primarySource</t>
   </si>
   <si>
-    <t>Indicates context the data was recorded in</t>
+    <t>Optional information source</t>
   </si>
   <si>
     <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
@@ -945,10 +1071,7 @@
     <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
   </si>
   <si>
-    <t>The role a practitioner plays in the immunization event</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-role</t>
+    <t>http://hl7.org.au/fhir/ValueSet/au-hl7v2-0443</t>
   </si>
   <si>
     <t>.participation.functionCode</t>
@@ -986,6 +1109,12 @@
   </si>
   <si>
     <t>Administering role</t>
+  </si>
+  <si>
+    <t>The role a practitioner plays in the immunization event</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-role</t>
   </si>
   <si>
     <t>Immunization.practitioner.role.id</t>
@@ -1035,6 +1164,28 @@
     <t>Approving practitioner</t>
   </si>
   <si>
+    <t>witnessedBy</t>
+  </si>
+  <si>
+    <t>Immunisation Witnessed By</t>
+  </si>
+  <si>
+    <t>Witnessing Role</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://hl7.org.au/fhir/v2/0443"/&gt;
+  &lt;code value="WIT"/&gt;
+  &lt;display value="Witness"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Witness</t>
+  </si>
+  <si>
+    <t>Witnessing practitioner</t>
+  </si>
+  <si>
     <t>Immunization.note</t>
   </si>
   <si>
@@ -1075,16 +1226,13 @@
     <t>Immunization.explanation.reason</t>
   </si>
   <si>
-    <t>Reason vaccine administered</t>
+    <t>Reason vaccine was given</t>
   </si>
   <si>
     <t>Reasons why a vaccine was administered.</t>
   </si>
   <si>
-    <t>The reason why a vaccine was administered</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/reason-vaccine-administered-1</t>
   </si>
   <si>
     <t>[actionNegationInd=false].reasonCode</t>
@@ -1093,67 +1241,22 @@
     <t>Event.reasonCodeableConcept</t>
   </si>
   <si>
-    <t>Immunization.explanation.reason.id</t>
-  </si>
-  <si>
-    <t>Immunization.explanation.reason.extension</t>
-  </si>
-  <si>
-    <t>Immunization.explanation.reason.coding</t>
-  </si>
-  <si>
-    <t>snomedReason</t>
-  </si>
-  <si>
-    <t>Reason Vaccine Administered (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/reason-vaccine-administered-1</t>
-  </si>
-  <si>
-    <t>Immunization.explanation.reason.text</t>
-  </si>
-  <si>
     <t>Immunization.explanation.reasonNotGiven</t>
   </si>
   <si>
-    <t>Reason immunisation did not occur</t>
+    <t>Reason vaccine not given</t>
   </si>
   <si>
     <t>Reason why a vaccine was not administered.</t>
   </si>
   <si>
-    <t>The reason why a vaccine was not administered</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/no-immunization-reason</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/reason-vaccine-not-administered-1</t>
   </si>
   <si>
     <t>RXA-18</t>
   </si>
   <si>
     <t>Event.notDoneReason</t>
-  </si>
-  <si>
-    <t>Immunization.explanation.reasonNotGiven.id</t>
-  </si>
-  <si>
-    <t>Immunization.explanation.reasonNotGiven.extension</t>
-  </si>
-  <si>
-    <t>Immunization.explanation.reasonNotGiven.coding</t>
-  </si>
-  <si>
-    <t>snomedReasonCode</t>
-  </si>
-  <si>
-    <t>Coded Reason (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/reason-vaccine-not-administered-1</t>
-  </si>
-  <si>
-    <t>Immunization.explanation.reasonNotGiven.text</t>
   </si>
   <si>
     <t>Immunization.reaction</t>
@@ -1577,7 +1680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN114"/>
+  <dimension ref="A1:AN128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3628,11 +3731,11 @@
         <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>41</v>
@@ -3682,11 +3785,9 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>41</v>
       </c>
@@ -3704,23 +3805,19 @@
         <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
       </c>
@@ -3744,11 +3841,13 @@
         <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>41</v>
@@ -3766,13 +3865,13 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>41</v>
@@ -3781,10 +3880,10 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>41</v>
@@ -3798,18 +3897,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>41</v>
@@ -3818,23 +3917,21 @@
         <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>41</v>
       </c>
@@ -3870,25 +3967,25 @@
         <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>41</v>
@@ -3897,10 +3994,10 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>41</v>
@@ -3912,9 +4009,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3928,31 +4025,35 @@
         <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>41</v>
@@ -3994,31 +4095,31 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AL21" t="s" s="2">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -4026,7 +4127,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4046,18 +4147,20 @@
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>41</v>
@@ -4106,39 +4209,39 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4152,27 +4255,27 @@
         <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
       </c>
@@ -4220,7 +4323,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4235,24 +4338,24 @@
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>205</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4260,33 +4363,33 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4334,10 +4437,10 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>51</v>
@@ -4349,13 +4452,13 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -4366,7 +4469,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4386,21 +4489,23 @@
         <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4424,13 +4529,13 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
@@ -4448,7 +4553,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4463,13 +4568,13 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
@@ -4480,9 +4585,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>41</v>
       </c>
@@ -4500,19 +4607,23 @@
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
@@ -4536,13 +4647,11 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4560,13 +4669,13 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>41</v>
@@ -4575,13 +4684,13 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4592,7 +4701,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4615,13 +4724,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>147</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4672,7 +4781,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4687,10 +4796,10 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>41</v>
@@ -4699,23 +4808,23 @@
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>233</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>41</v>
@@ -4727,15 +4836,17 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4772,25 +4883,25 @@
         <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
@@ -4799,10 +4910,10 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -4811,12 +4922,12 @@
         <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>239</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4824,7 +4935,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
@@ -4836,25 +4947,29 @@
         <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>41</v>
@@ -4896,7 +5011,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4911,10 +5026,10 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
@@ -4928,7 +5043,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4948,18 +5063,20 @@
         <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4984,13 +5101,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -5008,7 +5125,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5023,10 +5140,10 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
@@ -5035,12 +5152,12 @@
         <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>253</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5060,19 +5177,21 @@
         <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
       </c>
@@ -5120,7 +5239,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5135,10 +5254,10 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
@@ -5152,18 +5271,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>41</v>
@@ -5172,21 +5291,21 @@
         <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
       </c>
@@ -5222,25 +5341,25 @@
         <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -5249,10 +5368,10 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
@@ -5266,7 +5385,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5289,19 +5408,19 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5326,11 +5445,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -5348,13 +5469,13 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
@@ -5363,10 +5484,10 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
@@ -5380,7 +5501,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5406,16 +5527,16 @@
         <v>145</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5464,7 +5585,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5479,10 +5600,10 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
@@ -5494,9 +5615,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5504,13 +5625,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -5519,13 +5640,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5552,13 +5673,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5576,10 +5697,10 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>51</v>
@@ -5591,24 +5712,24 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>266</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5631,13 +5752,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>147</v>
+        <v>233</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5688,7 +5809,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5703,38 +5824,38 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -5743,16 +5864,16 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5790,25 +5911,25 @@
         <v>41</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -5817,24 +5938,24 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>149</v>
+        <v>244</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>41</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5842,35 +5963,33 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
       </c>
@@ -5906,23 +6025,25 @@
         <v>41</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -5931,13 +6052,13 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>165</v>
+        <v>253</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>41</v>
@@ -5948,11 +6069,9 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>41</v>
       </c>
@@ -5970,23 +6089,21 @@
         <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
       </c>
@@ -6010,11 +6127,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -6032,13 +6151,13 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>163</v>
+        <v>255</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>41</v>
@@ -6047,13 +6166,13 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -6064,7 +6183,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6084,23 +6203,19 @@
         <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>145</v>
+        <v>263</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
       </c>
@@ -6148,7 +6263,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6163,13 +6278,13 @@
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>179</v>
+        <v>267</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -6180,7 +6295,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6203,13 +6318,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6260,26 +6375,26 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
       </c>
@@ -6287,12 +6402,12 @@
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>41</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6303,7 +6418,7 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>41</v>
@@ -6312,16 +6427,16 @@
         <v>41</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6360,49 +6475,51 @@
         <v>41</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AB42" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6425,13 +6542,13 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>145</v>
+        <v>283</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6482,7 +6599,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6497,10 +6614,10 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>149</v>
+        <v>287</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -6514,18 +6631,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>41</v>
@@ -6537,17 +6654,15 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>98</v>
+        <v>289</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -6572,13 +6687,13 @@
         <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>41</v>
+        <v>291</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>41</v>
+        <v>292</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>41</v>
@@ -6596,13 +6711,13 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
@@ -6611,10 +6726,10 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>149</v>
+        <v>294</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
@@ -6623,45 +6738,43 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>41</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -6710,13 +6823,13 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>294</v>
+        <v>148</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
@@ -6728,7 +6841,7 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -6742,18 +6855,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>41</v>
@@ -6762,18 +6875,20 @@
         <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>296</v>
+        <v>98</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -6798,37 +6913,37 @@
         <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>295</v>
+        <v>155</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
@@ -6840,13 +6955,13 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>300</v>
+        <v>149</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6854,7 +6969,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6862,7 +6977,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>51</v>
@@ -6877,16 +6992,20 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>303</v>
+        <v>157</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>304</v>
+        <v>158</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
       </c>
@@ -6910,13 +7029,11 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -6934,13 +7051,13 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>302</v>
+        <v>163</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>41</v>
@@ -6949,16 +7066,16 @@
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>306</v>
+        <v>165</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -6966,11 +7083,9 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>41</v>
       </c>
@@ -6991,16 +7106,20 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>310</v>
+        <v>215</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>41</v>
       </c>
@@ -7048,31 +7167,31 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7080,7 +7199,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7103,13 +7222,13 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>147</v>
+        <v>303</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7136,13 +7255,13 @@
         <v>41</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>41</v>
@@ -7160,7 +7279,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>148</v>
+        <v>301</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7175,10 +7294,10 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>149</v>
+        <v>307</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
@@ -7187,23 +7306,23 @@
         <v>41</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>41</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>41</v>
@@ -7215,17 +7334,15 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>41</v>
@@ -7274,13 +7391,13 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>41</v>
@@ -7306,11 +7423,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>292</v>
+        <v>96</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7323,19 +7440,19 @@
         <v>41</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>293</v>
+        <v>151</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>100</v>
@@ -7376,19 +7493,19 @@
         <v>41</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7406,7 +7523,7 @@
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
@@ -7420,7 +7537,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7428,10 +7545,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>41</v>
@@ -7443,16 +7560,20 @@
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>311</v>
+        <v>158</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7476,37 +7597,35 @@
         <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>295</v>
+        <v>163</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
@@ -7515,16 +7634,16 @@
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7532,9 +7651,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>41</v>
       </c>
@@ -7552,19 +7673,23 @@
         <v>41</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>146</v>
+        <v>313</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>41</v>
       </c>
@@ -7588,13 +7713,11 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>41</v>
+        <v>314</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7612,13 +7735,13 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>41</v>
@@ -7627,10 +7750,10 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>41</v>
@@ -7644,18 +7767,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>41</v>
@@ -7664,21 +7787,23 @@
         <v>41</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>41</v>
       </c>
@@ -7714,25 +7839,25 @@
         <v>41</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>41</v>
@@ -7741,10 +7866,10 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
@@ -7758,7 +7883,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7766,10 +7891,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>41</v>
@@ -7778,29 +7903,25 @@
         <v>41</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>157</v>
+        <v>317</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>158</v>
+        <v>318</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>41</v>
@@ -7842,13 +7963,13 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>163</v>
+        <v>316</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
@@ -7857,10 +7978,10 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>164</v>
+        <v>320</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>165</v>
+        <v>321</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>41</v>
@@ -7874,7 +7995,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7882,10 +8003,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>41</v>
@@ -7897,26 +8018,22 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>145</v>
+        <v>323</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>173</v>
+        <v>324</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>317</v>
+        <v>41</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>41</v>
@@ -7946,43 +8063,41 @@
         <v>41</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>177</v>
+        <v>322</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>41</v>
+        <v>327</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>178</v>
+        <v>328</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>179</v>
+        <v>329</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>
@@ -7990,7 +8105,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7998,7 +8113,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>51</v>
@@ -8010,16 +8125,16 @@
         <v>41</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>303</v>
+        <v>145</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>318</v>
+        <v>146</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8070,10 +8185,10 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>302</v>
+        <v>148</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>51</v>
@@ -8088,13 +8203,13 @@
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>306</v>
+        <v>149</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -8102,20 +8217,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>41</v>
@@ -8124,18 +8237,20 @@
         <v>41</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>281</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>320</v>
+        <v>98</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
@@ -8184,7 +8299,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8196,19 +8311,19 @@
         <v>41</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>287</v>
+        <v>149</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8216,38 +8331,40 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>41</v>
@@ -8296,13 +8413,13 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>148</v>
+        <v>336</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>41</v>
@@ -8314,7 +8431,7 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>41</v>
@@ -8328,18 +8445,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>41</v>
@@ -8348,20 +8465,18 @@
         <v>41</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>98</v>
+        <v>338</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>41</v>
@@ -8386,13 +8501,11 @@
         <v>41</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>41</v>
+        <v>340</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>41</v>
@@ -8410,13 +8523,13 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>155</v>
+        <v>337</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
@@ -8428,13 +8541,13 @@
         <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>41</v>
@@ -8442,40 +8555,38 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>97</v>
+        <v>344</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>103</v>
+        <v>345</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>41</v>
@@ -8524,13 +8635,13 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>41</v>
@@ -8542,13 +8653,13 @@
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>94</v>
+        <v>347</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>41</v>
@@ -8556,15 +8667,17 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>51</v>
@@ -8579,13 +8692,13 @@
         <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8612,13 +8725,13 @@
         <v>41</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>41</v>
@@ -8636,31 +8749,31 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>41</v>
+        <v>327</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>41</v>
@@ -8668,7 +8781,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8780,7 +8893,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8850,16 +8963,16 @@
         <v>41</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>155</v>
@@ -8894,15 +9007,15 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>43</v>
@@ -8911,32 +9024,30 @@
         <v>41</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>159</v>
+        <v>335</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>322</v>
+        <v>41</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>41</v>
@@ -8978,7 +9089,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>163</v>
+        <v>336</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -8993,10 +9104,10 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>41</v>
@@ -9010,7 +9121,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9033,26 +9144,22 @@
         <v>52</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>41</v>
@@ -9070,13 +9177,13 @@
         <v>41</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>41</v>
+        <v>353</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>41</v>
@@ -9094,7 +9201,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9109,16 +9216,16 @@
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>179</v>
+        <v>341</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>41</v>
@@ -9126,7 +9233,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9134,7 +9241,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>51</v>
@@ -9146,16 +9253,16 @@
         <v>41</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>303</v>
+        <v>145</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>324</v>
+        <v>146</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9206,10 +9313,10 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>302</v>
+        <v>148</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>51</v>
@@ -9224,13 +9331,13 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>306</v>
+        <v>149</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>41</v>
@@ -9238,11 +9345,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9258,18 +9365,20 @@
         <v>41</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>326</v>
+        <v>97</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>327</v>
+        <v>98</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>41</v>
@@ -9306,19 +9415,19 @@
         <v>41</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>325</v>
+        <v>155</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9336,13 +9445,13 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>329</v>
+        <v>149</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>330</v>
+        <v>41</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>
@@ -9350,7 +9459,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9358,10 +9467,10 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>41</v>
@@ -9370,25 +9479,29 @@
         <v>41</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>281</v>
+        <v>157</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>332</v>
+        <v>158</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>41</v>
+        <v>358</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>41</v>
@@ -9430,25 +9543,25 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>331</v>
+        <v>163</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>41</v>
@@ -9462,7 +9575,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9470,7 +9583,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>51</v>
@@ -9482,25 +9595,29 @@
         <v>41</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>145</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>41</v>
@@ -9542,7 +9659,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9557,10 +9674,10 @@
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>41</v>
@@ -9574,18 +9691,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>41</v>
@@ -9594,20 +9711,18 @@
         <v>41</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>97</v>
+        <v>344</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>98</v>
+        <v>361</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -9656,13 +9771,13 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>155</v>
+        <v>343</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>41</v>
@@ -9674,13 +9789,13 @@
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>41</v>
@@ -9688,40 +9803,40 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="C72" t="s" s="2">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>97</v>
+        <v>323</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>103</v>
+        <v>363</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>41</v>
@@ -9770,7 +9885,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9782,19 +9897,19 @@
         <v>41</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>41</v>
+        <v>327</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>94</v>
+        <v>329</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>41</v>
@@ -9802,7 +9917,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9813,7 +9928,7 @@
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>41</v>
@@ -9825,13 +9940,13 @@
         <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>338</v>
+        <v>146</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>339</v>
+        <v>147</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9858,13 +9973,13 @@
         <v>41</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>41</v>
@@ -9882,13 +9997,13 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>337</v>
+        <v>148</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>41</v>
@@ -9900,13 +10015,13 @@
         <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>342</v>
+        <v>149</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>343</v>
+        <v>41</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>41</v>
@@ -9914,18 +10029,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>41</v>
@@ -9937,15 +10052,17 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>41</v>
@@ -9994,13 +10111,13 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>41</v>
@@ -10026,11 +10143,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>96</v>
+        <v>334</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10043,19 +10160,19 @@
         <v>41</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>151</v>
+        <v>335</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>100</v>
@@ -10096,19 +10213,19 @@
         <v>41</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>155</v>
+        <v>336</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10126,7 +10243,7 @@
         <v>41</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>41</v>
@@ -10140,7 +10257,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10148,10 +10265,10 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>41</v>
@@ -10163,20 +10280,16 @@
         <v>52</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>158</v>
+        <v>364</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>41</v>
       </c>
@@ -10200,35 +10313,37 @@
         <v>41</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>41</v>
+        <v>353</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB76" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>163</v>
+        <v>337</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>41</v>
@@ -10237,16 +10352,16 @@
         <v>41</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>165</v>
+        <v>341</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>41</v>
@@ -10254,11 +10369,9 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>41</v>
       </c>
@@ -10276,23 +10389,19 @@
         <v>41</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>348</v>
+        <v>146</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>41</v>
       </c>
@@ -10316,11 +10425,13 @@
         <v>41</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X77" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y77" t="s" s="2">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>41</v>
@@ -10338,13 +10449,13 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>41</v>
@@ -10353,10 +10464,10 @@
         <v>41</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>41</v>
@@ -10370,18 +10481,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>41</v>
@@ -10390,23 +10501,21 @@
         <v>41</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>41</v>
       </c>
@@ -10442,25 +10551,25 @@
         <v>41</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>41</v>
@@ -10469,10 +10578,10 @@
         <v>41</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>41</v>
@@ -10486,7 +10595,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10494,7 +10603,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>43</v>
@@ -10506,25 +10615,29 @@
         <v>41</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>352</v>
+        <v>158</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>41</v>
@@ -10542,13 +10655,13 @@
         <v>41</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>355</v>
+        <v>41</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>41</v>
@@ -10566,7 +10679,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>351</v>
+        <v>163</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10581,16 +10694,16 @@
         <v>41</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>356</v>
+        <v>164</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>357</v>
+        <v>41</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>41</v>
@@ -10598,7 +10711,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10606,7 +10719,7 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>51</v>
@@ -10618,25 +10731,29 @@
         <v>41</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>145</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="R80" t="s" s="2">
         <v>41</v>
@@ -10678,7 +10795,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10693,10 +10810,10 @@
         <v>41</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
@@ -10710,18 +10827,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>41</v>
@@ -10730,20 +10847,18 @@
         <v>41</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>97</v>
+        <v>344</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>98</v>
+        <v>367</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>41</v>
@@ -10780,25 +10895,25 @@
         <v>41</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>155</v>
+        <v>343</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>41</v>
@@ -10810,13 +10925,13 @@
         <v>41</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>41</v>
@@ -10824,9 +10939,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B82" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="C82" t="s" s="2">
         <v>41</v>
       </c>
@@ -10847,20 +10964,16 @@
         <v>52</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>157</v>
+        <v>323</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>158</v>
+        <v>369</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>41</v>
       </c>
@@ -10896,17 +11009,19 @@
         <v>41</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB82" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>163</v>
+        <v>322</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -10918,19 +11033,19 @@
         <v>41</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>41</v>
+        <v>327</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>164</v>
+        <v>328</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>165</v>
+        <v>329</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>41</v>
@@ -10938,11 +11053,9 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>41</v>
       </c>
@@ -10951,7 +11064,7 @@
         <v>42</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>41</v>
@@ -10960,23 +11073,19 @@
         <v>41</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>362</v>
+        <v>146</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>41</v>
       </c>
@@ -11000,11 +11109,13 @@
         <v>41</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X83" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y83" t="s" s="2">
-        <v>363</v>
+        <v>41</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>41</v>
@@ -11022,13 +11133,13 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>41</v>
@@ -11037,10 +11148,10 @@
         <v>41</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
@@ -11054,18 +11165,18 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>41</v>
@@ -11074,23 +11185,21 @@
         <v>41</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>41</v>
       </c>
@@ -11138,13 +11247,13 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>41</v>
@@ -11153,10 +11262,10 @@
         <v>41</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>41</v>
@@ -11170,11 +11279,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11187,22 +11296,22 @@
         <v>41</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>281</v>
+        <v>97</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>366</v>
+        <v>103</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>368</v>
+        <v>100</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11252,7 +11361,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11264,13 +11373,13 @@
         <v>41</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>369</v>
+        <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>370</v>
+        <v>94</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>41</v>
@@ -11284,7 +11393,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11292,7 +11401,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>51</v>
@@ -11304,16 +11413,16 @@
         <v>41</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>146</v>
+        <v>370</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>147</v>
+        <v>339</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11340,13 +11449,13 @@
         <v>41</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>41</v>
+        <v>353</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>41</v>
@@ -11364,7 +11473,7 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>148</v>
+        <v>337</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11382,13 +11491,13 @@
         <v>41</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>41</v>
@@ -11396,18 +11505,18 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>41</v>
@@ -11419,17 +11528,15 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>41</v>
@@ -11478,13 +11585,13 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>41</v>
@@ -11510,11 +11617,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>292</v>
+        <v>96</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11527,19 +11634,19 @@
         <v>41</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>293</v>
+        <v>151</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>100</v>
@@ -11580,19 +11687,19 @@
         <v>41</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11610,7 +11717,7 @@
         <v>41</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>41</v>
@@ -11624,7 +11731,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11632,10 +11739,10 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>41</v>
@@ -11644,25 +11751,29 @@
         <v>41</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>375</v>
+        <v>158</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
-        <v>41</v>
+        <v>371</v>
       </c>
       <c r="R89" t="s" s="2">
         <v>41</v>
@@ -11704,13 +11815,13 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>374</v>
+        <v>163</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>41</v>
@@ -11719,10 +11830,10 @@
         <v>41</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>377</v>
+        <v>164</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>41</v>
@@ -11736,7 +11847,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11744,7 +11855,7 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>51</v>
@@ -11756,25 +11867,29 @@
         <v>41</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>379</v>
+        <v>145</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>380</v>
+        <v>215</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>41</v>
@@ -11816,7 +11931,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>378</v>
+        <v>219</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -11831,10 +11946,10 @@
         <v>41</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>382</v>
+        <v>220</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>383</v>
+        <v>221</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>41</v>
@@ -11848,7 +11963,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11856,7 +11971,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>51</v>
@@ -11868,16 +11983,16 @@
         <v>41</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>125</v>
+        <v>344</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11928,10 +12043,10 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>51</v>
@@ -11943,24 +12058,24 @@
         <v>41</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>387</v>
+        <v>41</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11974,22 +12089,22 @@
         <v>43</v>
       </c>
       <c r="G92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J92" t="s" s="2">
-        <v>281</v>
+        <v>375</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12040,7 +12155,7 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12052,19 +12167,19 @@
         <v>41</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>392</v>
+        <v>41</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>41</v>
+        <v>379</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>41</v>
@@ -12072,7 +12187,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12095,13 +12210,13 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>145</v>
+        <v>323</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>146</v>
+        <v>381</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>147</v>
+        <v>382</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12152,7 +12267,7 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>148</v>
+        <v>380</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12164,7 +12279,7 @@
         <v>41</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>41</v>
+        <v>327</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>41</v>
@@ -12184,18 +12299,18 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>41</v>
@@ -12207,17 +12322,15 @@
         <v>41</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>41</v>
@@ -12266,13 +12379,13 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>41</v>
@@ -12298,11 +12411,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>292</v>
+        <v>96</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12315,19 +12428,19 @@
         <v>41</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>293</v>
+        <v>151</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>100</v>
@@ -12380,7 +12493,7 @@
         <v>41</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12398,7 +12511,7 @@
         <v>41</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>41</v>
@@ -12410,40 +12523,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H96" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H96" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I96" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>398</v>
+        <v>97</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>399</v>
+        <v>103</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M96" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>41</v>
@@ -12492,13 +12607,13 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>397</v>
+        <v>336</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>41</v>
@@ -12510,7 +12625,7 @@
         <v>41</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>401</v>
+        <v>94</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>41</v>
@@ -12524,7 +12639,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12535,7 +12650,7 @@
         <v>42</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>41</v>
@@ -12547,13 +12662,13 @@
         <v>41</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12580,13 +12695,11 @@
         <v>41</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="X97" s="2"/>
       <c r="Y97" t="s" s="2">
-        <v>41</v>
+        <v>389</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>41</v>
@@ -12604,13 +12717,13 @@
         <v>41</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>41</v>
@@ -12622,13 +12735,13 @@
         <v>41</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>41</v>
+        <v>391</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>41</v>
@@ -12636,7 +12749,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12647,7 +12760,7 @@
         <v>42</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>41</v>
@@ -12659,13 +12772,13 @@
         <v>41</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12692,13 +12805,11 @@
         <v>41</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="X98" s="2"/>
       <c r="Y98" t="s" s="2">
-        <v>41</v>
+        <v>395</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>41</v>
@@ -12716,13 +12827,13 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>41</v>
@@ -12731,16 +12842,16 @@
         <v>41</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>41</v>
+        <v>396</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>409</v>
+        <v>130</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>41</v>
+        <v>397</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>41</v>
@@ -12748,7 +12859,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12759,7 +12870,7 @@
         <v>42</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>41</v>
@@ -12771,15 +12882,17 @@
         <v>41</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>145</v>
+        <v>323</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>41</v>
@@ -12828,25 +12941,25 @@
         <v>41</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>41</v>
+        <v>327</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>41</v>
+        <v>402</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>41</v>
@@ -12860,7 +12973,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12883,13 +12996,13 @@
         <v>41</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>398</v>
+        <v>145</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>414</v>
+        <v>146</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>415</v>
+        <v>147</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12940,7 +13053,7 @@
         <v>41</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>413</v>
+        <v>148</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -12958,7 +13071,7 @@
         <v>41</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>405</v>
+        <v>149</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>41</v>
@@ -12972,15 +13085,15 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>43</v>
@@ -12995,15 +13108,17 @@
         <v>41</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>417</v>
+        <v>98</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M101" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>41</v>
@@ -13028,13 +13143,13 @@
         <v>41</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>420</v>
+        <v>41</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>41</v>
@@ -13052,10 +13167,10 @@
         <v>41</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>416</v>
+        <v>155</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>43</v>
@@ -13070,7 +13185,7 @@
         <v>41</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>421</v>
+        <v>149</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>41</v>
@@ -13084,38 +13199,40 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>41</v>
@@ -13164,13 +13281,13 @@
         <v>41</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>148</v>
+        <v>336</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>41</v>
@@ -13182,7 +13299,7 @@
         <v>41</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>41</v>
@@ -13196,18 +13313,18 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>41</v>
@@ -13219,17 +13336,15 @@
         <v>41</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>98</v>
+        <v>408</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>41</v>
@@ -13266,25 +13381,25 @@
         <v>41</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="AC103" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>155</v>
+        <v>407</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>41</v>
@@ -13293,10 +13408,10 @@
         <v>41</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>41</v>
+        <v>410</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>149</v>
+        <v>244</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>41</v>
@@ -13310,7 +13425,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13321,7 +13436,7 @@
         <v>42</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>41</v>
@@ -13330,23 +13445,19 @@
         <v>41</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>157</v>
+        <v>412</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>41</v>
       </c>
@@ -13382,23 +13493,25 @@
         <v>41</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB104" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC104" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>163</v>
+        <v>411</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>41</v>
@@ -13407,10 +13520,10 @@
         <v>41</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>164</v>
+        <v>415</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>165</v>
+        <v>416</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>41</v>
@@ -13424,11 +13537,9 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
         <v>41</v>
       </c>
@@ -13446,23 +13557,19 @@
         <v>41</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>41</v>
       </c>
@@ -13486,11 +13593,13 @@
         <v>41</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X105" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y105" t="s" s="2">
-        <v>427</v>
+        <v>41</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>41</v>
@@ -13508,13 +13617,13 @@
         <v>41</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>163</v>
+        <v>417</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>41</v>
@@ -13523,10 +13632,10 @@
         <v>41</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>164</v>
+        <v>420</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>165</v>
+        <v>421</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>41</v>
@@ -13538,13 +13647,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
         <v>41</v>
       </c>
@@ -13553,38 +13660,34 @@
         <v>42</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>157</v>
+        <v>323</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>430</v>
+        <v>41</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>41</v>
@@ -13626,7 +13729,7 @@
         <v>41</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>163</v>
+        <v>422</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
@@ -13638,13 +13741,13 @@
         <v>41</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>41</v>
+        <v>327</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>164</v>
+        <v>425</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>165</v>
+        <v>426</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>41</v>
@@ -13658,7 +13761,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13678,23 +13781,19 @@
         <v>41</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J107" t="s" s="2">
         <v>145</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>41</v>
       </c>
@@ -13742,7 +13841,7 @@
         <v>41</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>42</v>
@@ -13757,10 +13856,10 @@
         <v>41</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>41</v>
@@ -13772,23 +13871,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>41</v>
@@ -13797,16 +13896,16 @@
         <v>41</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>433</v>
+        <v>98</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>434</v>
+        <v>151</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>435</v>
+        <v>100</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -13832,13 +13931,13 @@
         <v>41</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>436</v>
+        <v>41</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>437</v>
+        <v>41</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>41</v>
@@ -13856,13 +13955,13 @@
         <v>41</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>432</v>
+        <v>155</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>41</v>
@@ -13874,7 +13973,7 @@
         <v>41</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>438</v>
+        <v>149</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>41</v>
@@ -13888,38 +13987,40 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M109" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>41</v>
@@ -13968,13 +14069,13 @@
         <v>41</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>148</v>
+        <v>336</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>41</v>
@@ -13986,7 +14087,7 @@
         <v>41</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>41</v>
@@ -13998,23 +14099,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>41</v>
@@ -14023,17 +14124,15 @@
         <v>41</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>97</v>
+        <v>431</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>98</v>
+        <v>432</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>41</v>
@@ -14070,25 +14169,25 @@
         <v>41</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="AC110" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD110" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>155</v>
+        <v>430</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>41</v>
@@ -14100,7 +14199,7 @@
         <v>41</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>149</v>
+        <v>434</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>41</v>
@@ -14114,7 +14213,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14125,7 +14224,7 @@
         <v>42</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>41</v>
@@ -14134,23 +14233,19 @@
         <v>41</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>158</v>
+        <v>436</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>41</v>
       </c>
@@ -14186,23 +14281,25 @@
         <v>41</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AB111" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC111" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>163</v>
+        <v>435</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>41</v>
@@ -14211,10 +14308,10 @@
         <v>41</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>165</v>
+        <v>438</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>41</v>
@@ -14228,11 +14325,9 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>41</v>
       </c>
@@ -14250,29 +14345,25 @@
         <v>41</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>445</v>
+        <v>41</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>41</v>
@@ -14314,13 +14405,13 @@
         <v>41</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>163</v>
+        <v>439</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>41</v>
@@ -14329,10 +14420,10 @@
         <v>41</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>165</v>
+        <v>442</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>41</v>
@@ -14346,7 +14437,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14366,23 +14457,19 @@
         <v>41</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J113" t="s" s="2">
         <v>145</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>173</v>
+        <v>444</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>41</v>
       </c>
@@ -14430,7 +14517,7 @@
         <v>41</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>177</v>
+        <v>443</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>42</v>
@@ -14445,10 +14532,10 @@
         <v>41</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>179</v>
+        <v>426</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>41</v>
@@ -14462,7 +14549,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14485,13 +14572,13 @@
         <v>41</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>133</v>
+        <v>431</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -14518,62 +14605,1664 @@
         <v>41</v>
       </c>
       <c r="W114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W115" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="X114" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK114" t="s" s="2">
+      <c r="X115" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AL114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN114" t="s" s="2">
+      <c r="Y115" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AB118" s="2"/>
+      <c r="AC118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="X119" s="2"/>
+      <c r="Y119" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="R120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AB125" s="2"/>
+      <c r="AC125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN128" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN114">
+  <autoFilter ref="A1:AN128">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14583,7 +16272,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI113">
+  <conditionalFormatting sqref="A2:AI127">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
+++ b/output/SharedHealthSummary/immunization-summary-administration-1.xlsx
@@ -156,7 +156,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}imm-2:If immunization was administered (notGiven=false) then explanation.reasonNotGiven SHALL be absent. {(notGiven = true) or explanation.reasonNotGiven.empty()}imm-1:If immunization was not administered (notGiven=true) then there SHALL be no reaction nor explanation.reason present {(notGiven = true).not() or (reaction.empty() and explanation.reason.empty())}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}imm-2:If immunization was administered (notGiven=false) then explanation.reasonNotGiven SHALL be absent. {(notGiven = true) or explanation.reasonNotGiven.empty()}imm-1:If immunization was not administered (notGiven=true) then there SHALL be no reaction nor explanation.reason present {(notGiven = true).not() or (reaction.empty() and explanation.reason.empty())}inv-dh-imm-01:The patient shall at least have a reference or an identifier with at least a system and a value {patient.reference.exists() or patient.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>VXU_V04</t>
